--- a/Oswyn/Feedback.xlsx
+++ b/Oswyn/Feedback.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Author</t>
   </si>
@@ -49,6 +49,87 @@
   </si>
   <si>
     <t>Documentation Updated</t>
+  </si>
+  <si>
+    <t>86d7fe0</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Move thme to the Product Definition</t>
+  </si>
+  <si>
+    <t>Files are not in the Product Definition Folder. This does not follow the folder structure and would make it confusing to another engineer</t>
+  </si>
+  <si>
+    <t>No need for revisions in the file name. Since github is tracking versions you do not need to put them in the file name</t>
+  </si>
+  <si>
+    <t>Remove version from the file name</t>
+  </si>
+  <si>
+    <t>Flow Diagram</t>
+  </si>
+  <si>
+    <t>Over all clear and easy to read</t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
+  <si>
+    <t>Missing Key</t>
+  </si>
+  <si>
+    <t>Add a simple Key that explains what the arrows mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No need to name signals in the Flow Diagram. At this high level you do not need to enumerate the different signals. We will do that in the Hardware Block Diagram in the Architetcure. The visual grammar shows that they are separate signals. </t>
+  </si>
+  <si>
+    <t>Remove the signal names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you be more precise with the Feedback Sensor Block. There are many types of sensors so this does not define what you want to do. </t>
+  </si>
+  <si>
+    <t>Update the word "feedback" with what type of sensor you want to use</t>
+  </si>
+  <si>
+    <t>On the power signal going to the motors you do not need the arrow head at each junction. This clutters up the diagram</t>
+  </si>
+  <si>
+    <t>Remove the arrow heads</t>
+  </si>
+  <si>
+    <t>Product Definition</t>
+  </si>
+  <si>
+    <t>See "ARC BOT PRODUCT DEFINITION_REV 0.1 - MK Comments"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This document does not match the guidelines. See how I formatted the doc and look at the guidelines again. If you can questions let me know. </t>
+  </si>
+  <si>
+    <t>Professional Work Process</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Work  Process - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>This is the task level work process not the project level work process</t>
+    </r>
+  </si>
+  <si>
+    <t>Update with the process you go through to complete a task assigned to you. See the Work Process Presentation for a starting point</t>
   </si>
 </sst>
 </file>
@@ -129,7 +210,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -175,8 +256,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -204,8 +293,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -228,6 +320,10 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -250,6 +346,10 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -662,6 +762,160 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="48">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="48">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="48">
+      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="80">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32">
+      <c r="A15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Oswyn/Feedback.xlsx
+++ b/Oswyn/Feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>Author</t>
   </si>
@@ -131,6 +131,91 @@
   <si>
     <t>Update with the process you go through to complete a task assigned to you. See the Work Process Presentation for a starting point</t>
   </si>
+  <si>
+    <t>a8c6fd6</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" DEFINED AREA FOR DRAWING AN ARC." this is a good product level characteristics. But how big is the drawing area specifcially </t>
+  </si>
+  <si>
+    <t>Add dimensions of drawing area</t>
+  </si>
+  <si>
+    <t>Poduct Characteristics</t>
+  </si>
+  <si>
+    <t>This is also the place to say that this is for making post cards</t>
+  </si>
+  <si>
+    <t>"- DSP FOR PRECISE MOTOR MOVEMENTS
+ - EMBEDDED CODE FOR OPERATING LOGIC" these associated with features not the whole product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move them to the feature associated with them. </t>
+  </si>
+  <si>
+    <t>AUDRIO</t>
+  </si>
+  <si>
+    <t>spelling</t>
+  </si>
+  <si>
+    <t>General Chacteristics</t>
+  </si>
+  <si>
+    <t>Thre are some general issues we should go over abou this</t>
+  </si>
+  <si>
+    <t>Lets set up a call to go through it</t>
+  </si>
+  <si>
+    <t>General Behavior</t>
+  </si>
+  <si>
+    <t>Major Components BOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULN2003 is the part number not the module number. </t>
+  </si>
+  <si>
+    <t>If you gave this number to someone they would order the wrong thing. Update the Vendor and Vendor part number with the module you actually want to buy</t>
+  </si>
+  <si>
+    <t>Joystick breakout board module does not have a part number</t>
+  </si>
+  <si>
+    <t>I need a part number to buy against so you need to include one</t>
+  </si>
+  <si>
+    <t>"Collision sensor limit switch module " no vendor part number</t>
+  </si>
+  <si>
+    <t>Add a part number</t>
+  </si>
+  <si>
+    <t>You need to add the mechanical parts to your Feature List</t>
+  </si>
+  <si>
+    <t>Add the arms but mark them as mechaical components</t>
+  </si>
+  <si>
+    <t>Feature List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General </t>
+  </si>
+  <si>
+    <t>Try and limit the number of places order from</t>
+  </si>
+  <si>
+    <t>Sub-funcation parts set not marked</t>
+  </si>
+  <si>
+    <t>I need to know what subset of parts I need to buy so mark them somehow</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,16 +277,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,8 +315,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -264,8 +379,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -296,8 +449,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -324,6 +488,25 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -350,6 +533,25 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -679,241 +881,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="9" customWidth="1"/>
-    <col min="4" max="4" width="55" style="10" customWidth="1"/>
-    <col min="5" max="5" width="66.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55" style="10" customWidth="1"/>
+    <col min="6" max="6" width="66.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="2"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48">
+    <row r="7" spans="1:9" ht="48">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="48">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="48">
-      <c r="A8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="48">
+      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="48">
-      <c r="A9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="E10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="E11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="80">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="80">
-      <c r="A12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="E12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="48">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="48">
-      <c r="A13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="32">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="32">
-      <c r="A14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="E14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="32">
+      <c r="A15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="32">
-      <c r="A15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="14" customFormat="1">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="48">
+      <c r="A17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="48">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48">
+      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="32">
+      <c r="A26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="E28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
